--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -523,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -550,7 +550,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,20 +559,20 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -613,25 +613,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -640,25 +640,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -667,29 +671,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -698,29 +698,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -739,19 +735,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,19 +766,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -801,7 +797,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -809,7 +805,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -818,25 +814,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -845,29 +845,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -886,7 +882,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -894,7 +890,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -913,7 +909,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -921,7 +917,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -930,25 +926,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -957,25 +957,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -984,29 +988,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1015,29 +1015,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1056,19 +1052,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1099,7 +1095,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1108,29 +1104,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1139,20 +1135,24 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -772,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -809,16 +809,16 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -861,18 +861,18 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -915,15 +915,11 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -934,7 +930,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -958,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -971,16 +967,16 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1038,7 +1034,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1056,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1073,14 +1069,18 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1123,13 +1123,13 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
           <t>6</t>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1185,7 +1185,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1235,11 +1235,15 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1254,7 +1258,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1272,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1291,11 +1295,15 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
           <t>6</t>
@@ -1308,7 +1316,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1326,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1343,15 +1351,11 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1366,7 +1370,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1403,18 +1407,18 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1428,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1436,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1448,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1457,22 +1461,18 @@
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1519,13 +1519,13 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1575,16 +1575,16 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2, 6</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1612,39 +1612,39 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1689,14 +1689,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1718,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1739,15 +1739,19 @@
         <v>3</v>
       </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
           <t>4</t>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1797,7 +1801,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1814,7 +1818,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1851,18 +1855,18 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1876,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1881,7 +1885,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1890,39 +1894,35 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1942,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1963,22 +1963,22 @@
         <v>4</v>
       </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2006,39 +2006,39 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>2, 8</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2083,13 +2083,13 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2122,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2141,18 +2141,18 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2199,15 +2199,11 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
           <t>4</t>
@@ -2220,7 +2216,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2229,48 +2225,52 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2311,17 +2311,21 @@
         <v>4</v>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -2336,7 +2340,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2348,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2360,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2369,26 +2373,22 @@
         <v>4</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2410,19 +2410,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2431,17 +2431,17 @@
         <v>4</v>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2468,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2489,26 +2489,18 @@
         <v>4</v>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2510,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2536,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2553,11 +2545,15 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -2572,7 +2568,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2581,52 +2577,48 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>4</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2634,7 +2626,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2671,13 +2663,13 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -2692,7 +2684,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2710,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2729,13 +2721,13 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2750,7 +2742,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2762,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2783,18 +2775,22 @@
         <v>4</v>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2800,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2813,7 +2809,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2825,36 +2821,40 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2899,18 +2899,18 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2938,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2955,16 +2955,16 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3049,19 +3049,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3072,27 +3072,27 @@
       <c r="K47" t="n">
         <v>5</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3134,31 +3134,27 @@
       <c r="K48" t="n">
         <v>5</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3164,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3177,22 +3173,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3200,27 +3196,27 @@
       <c r="K49" t="n">
         <v>5</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3284,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3306,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3329,13 +3325,13 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -3350,7 +3346,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3359,19 +3355,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -3382,27 +3378,27 @@
       <c r="K52" t="n">
         <v>5</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3408,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3430,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3451,7 +3447,11 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>1</t>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3515,7 +3515,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3581,7 +3581,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3690,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3706,24 +3706,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -3804,7 +3800,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3822,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3838,20 +3834,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3884,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3905,11 +3905,7 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>1</t>
@@ -3917,12 +3913,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3928,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3950,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3971,7 +3967,11 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>1</t>
@@ -3979,12 +3979,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -4028,24 +4028,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAAAATAtAT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4072,13 +4072,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -4094,19 +4094,23 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -4126,7 +4130,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4138,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -4150,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -4160,24 +4164,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -4192,7 +4196,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TAAAATAtAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4210,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -4235,11 +4239,7 @@
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>1</t>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>TATAATAtAT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4552,13 +4552,13 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4577,7 +4577,11 @@
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>1, 3</t>
@@ -4585,7 +4589,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -4600,7 +4604,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AAtAATAAAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4609,19 +4613,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -4634,23 +4638,19 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TATAATAtAT</t>
+          <t>AAtAATAtAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4679,19 +4679,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -4704,23 +4704,23 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AAtAATAtAT</t>
+          <t>AAtAATAAAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4758,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4785,7 +4785,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -657,13 +657,13 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -722,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -772,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -809,16 +809,16 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -863,16 +863,16 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -915,11 +915,15 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -930,7 +934,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -948,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -965,13 +969,13 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
           <t>6</t>
@@ -984,7 +988,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1002,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1021,11 +1025,15 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1034,7 +1042,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1052,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1069,18 +1077,14 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1088,7 +1092,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1106,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1123,18 +1127,14 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1179,7 +1179,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1235,15 +1235,11 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1258,7 +1254,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1276,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1295,15 +1291,11 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>6</t>
@@ -1316,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1334,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1351,13 +1343,13 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>6, 8</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>6</t>
@@ -1370,7 +1362,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1388,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1407,18 +1399,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1416,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1437,7 +1425,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1449,32 +1437,36 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1540,7 +1532,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1552,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1573,15 +1565,19 @@
         <v>3</v>
       </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
           <t>4</t>
@@ -1594,7 +1590,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1603,7 +1599,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1612,39 +1608,39 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1670,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1689,14 +1685,18 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1718,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>3</v>
       </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1801,14 +1801,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1911,16 +1911,16 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1967,7 +1967,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2006,39 +2006,39 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2116,19 +2116,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2137,17 +2137,17 @@
         <v>4</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2174,19 +2174,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2195,15 +2195,19 @@
         <v>4</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
           <t>4</t>
@@ -2216,7 +2220,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2228,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2249,23 +2253,15 @@
         <v>4</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
           <t>4</t>
@@ -2278,7 +2274,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2290,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2302,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2311,11 +2307,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
@@ -2325,12 +2317,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2332,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2358,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2377,15 +2369,11 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>2, 6</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
           <t>6</t>
@@ -2398,7 +2386,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2435,18 +2423,18 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2444,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2465,7 +2453,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2474,35 +2462,39 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2510,7 +2502,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2519,7 +2511,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2528,39 +2520,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2568,7 +2564,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2580,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2601,22 +2597,22 @@
         <v>4</v>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2622,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2644,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2663,18 +2659,18 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2702,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2721,13 +2717,13 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2742,7 +2738,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2754,19 +2750,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2775,17 +2771,17 @@
         <v>4</v>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -2800,7 +2796,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2809,7 +2805,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2818,43 +2814,35 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2862,7 +2850,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2874,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2886,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2895,17 +2883,21 @@
         <v>4</v>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2920,7 +2912,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2932,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2953,18 +2945,26 @@
         <v>4</v>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2983,19 +2983,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3006,26 +3006,22 @@
       <c r="K46" t="n">
         <v>5</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -3102,7 +3098,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3111,10 +3107,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3123,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3134,22 +3130,26 @@
       <c r="K48" t="n">
         <v>5</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3173,19 +3173,19 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -3196,27 +3196,27 @@
       <c r="K49" t="n">
         <v>5</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3258,23 +3258,31 @@
       <c r="K50" t="n">
         <v>5</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3292,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3302,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3323,15 +3331,11 @@
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -3346,7 +3350,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3387,13 +3391,13 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -3408,7 +3412,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3426,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3447,11 +3451,7 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>1</t>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3552,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -3577,13 +3577,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>1</t>
@@ -3591,12 +3591,12 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3645,11 +3645,7 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>7</t>
@@ -3657,7 +3653,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -3672,7 +3668,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3690,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3706,20 +3702,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3746,13 +3746,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -3771,13 +3771,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>1</t>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3818,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3839,11 +3839,7 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>1</t>
@@ -3851,7 +3847,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -3866,7 +3862,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3884,13 +3880,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3905,7 +3901,11 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>1</t>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3962,29 +3962,29 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -4035,7 +4035,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -4164,24 +4164,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -4230,24 +4230,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>AAtAATATAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4307,7 +4307,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4350,13 +4350,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4375,7 +4375,11 @@
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>3</t>
@@ -4383,7 +4387,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -4398,7 +4402,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AAtAATATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4407,19 +4411,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -4432,23 +4436,19 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4477,10 +4477,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4502,24 +4502,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TATAATAtAT</t>
+          <t>AAtAATAAAT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4555,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4568,28 +4568,28 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AAtAATAAAT</t>
+          <t>TATAATAtAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4749,10 +4749,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -4761,10 +4761,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4774,28 +4774,28 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -657,13 +657,13 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -672,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AtATATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>AtATATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -759,7 +759,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -809,16 +809,12 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -826,7 +822,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -850,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -863,16 +859,16 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,7 +876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -898,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -907,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -915,18 +911,18 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -934,7 +930,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -958,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -973,14 +969,10 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -988,7 +980,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1012,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -1025,16 +1017,16 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1042,7 +1034,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1060,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1077,14 +1069,18 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1110,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1129,11 +1125,15 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1177,15 +1177,11 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1254,7 +1250,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1291,7 +1287,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1308,7 +1304,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1326,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1345,14 +1341,18 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1399,7 +1399,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1434,39 +1434,39 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1511,18 +1511,18 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1544,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1565,19 +1565,15 @@
         <v>3</v>
       </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
           <t>4</t>
@@ -1590,7 +1586,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1633,7 +1629,7 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -1648,7 +1644,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1660,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1681,17 +1677,17 @@
         <v>3</v>
       </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -1706,7 +1702,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1715,7 +1711,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1724,39 +1720,39 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1764,7 +1760,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1782,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1801,14 +1797,18 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1836,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1855,18 +1855,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1872,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1894,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1911,11 +1907,15 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1948,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1967,13 +1967,13 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2025,18 +2025,18 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2079,7 +2079,11 @@
         <v>4</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
@@ -2089,12 +2093,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2108,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2113,10 +2117,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2125,36 +2129,36 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>4, 8</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2220,7 +2224,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2232,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2253,15 +2257,23 @@
         <v>4</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
           <t>4</t>
@@ -2274,7 +2286,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2311,13 +2323,13 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -2332,7 +2344,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2369,14 +2381,14 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2398,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2404,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2423,15 +2435,11 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
           <t>6</t>
@@ -2444,7 +2452,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2453,7 +2461,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2462,39 +2470,39 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2502,7 +2510,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2511,52 +2519,48 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2564,7 +2568,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2582,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2601,13 +2605,13 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2622,7 +2626,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2640,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2659,18 +2663,18 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2684,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2698,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2715,15 +2719,11 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2775,18 +2775,18 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2814,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2831,11 +2831,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -2850,7 +2854,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2862,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2883,26 +2887,22 @@
         <v>4</v>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2933,40 +2933,40 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -3015,13 +3015,13 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -3070,25 +3070,29 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3102,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3116,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3132,29 +3136,25 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -3185,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3196,27 +3196,31 @@
       <c r="K49" t="n">
         <v>5</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3235,10 +3239,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -3247,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3258,31 +3262,27 @@
       <c r="K50" t="n">
         <v>5</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3368,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3391,13 +3391,13 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3508,29 +3508,29 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3552,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -3577,13 +3577,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>1</t>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3640,20 +3640,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -3668,7 +3672,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3686,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3709,7 +3713,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3719,12 +3723,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3738,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3752,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3768,29 +3772,25 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3880,13 +3880,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3903,7 +3903,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3940,13 +3940,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -3962,29 +3962,29 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4035,7 +4035,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AAtAATATAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4307,7 +4307,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>AAtAATATAT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4377,7 +4377,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4436,24 +4436,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4477,10 +4477,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4502,24 +4502,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>AAtAATAtAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4613,22 +4613,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4638,24 +4638,28 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -4670,7 +4674,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AAtAATAtAT</t>
+          <t>TATAATAtAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4679,19 +4683,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -4704,23 +4708,23 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -4740,7 +4744,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TATAATAtAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4758,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4783,11 +4787,7 @@
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>1, 3</t>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -657,13 +657,13 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -772,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -809,12 +809,16 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -822,7 +826,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -846,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -859,16 +863,16 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -876,7 +880,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -894,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -903,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -911,18 +915,18 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -930,7 +934,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -948,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -965,11 +969,15 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -980,7 +988,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -998,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1015,13 +1023,13 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
           <t>6</t>
@@ -1034,7 +1042,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1052,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1069,18 +1077,14 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1088,7 +1092,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1106,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1125,15 +1129,11 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1177,13 +1177,13 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2, 6</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>6</t>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1283,18 +1283,22 @@
         <v>3</v>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1322,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1341,15 +1345,11 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>4</t>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1399,14 +1399,18 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1420,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1453,7 +1457,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1464,7 +1468,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1478,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1511,7 +1515,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1522,7 +1526,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1536,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1569,14 +1573,14 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1590,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1623,7 +1627,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1634,7 +1638,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1648,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1656,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1677,22 +1681,22 @@
         <v>3</v>
       </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1711,7 +1715,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1720,39 +1724,35 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1778,39 +1778,39 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1836,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1853,13 +1853,13 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
           <t>6</t>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1909,7 +1909,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1951,36 +1951,40 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1988,7 +1992,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2000,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2021,17 +2025,21 @@
         <v>4</v>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2046,7 +2054,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2058,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2079,21 +2087,17 @@
         <v>4</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2108,7 +2112,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2117,7 +2121,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2126,39 +2130,39 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2166,7 +2170,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2178,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2199,22 +2203,22 @@
         <v>4</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2228,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2236,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2248,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2257,26 +2261,22 @@
         <v>4</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2321,15 +2321,11 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -2398,7 +2394,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2416,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2435,11 +2431,15 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>6</t>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2470,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2489,18 +2489,14 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2506,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2522,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2543,22 +2539,22 @@
         <v>4</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2564,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2605,7 +2601,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -2616,7 +2612,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2622,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2644,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2663,18 +2659,18 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2696,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2708,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2717,18 +2713,22 @@
         <v>4</v>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2756,39 +2756,39 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6, 8</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2808,13 +2808,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2829,22 +2829,22 @@
         <v>4</v>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2866,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2887,22 +2887,26 @@
         <v>4</v>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2916,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2921,7 +2925,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2930,43 +2934,39 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3045,19 +3045,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3068,26 +3068,22 @@
       <c r="K47" t="n">
         <v>5</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -3164,7 +3160,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3173,10 +3169,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -3185,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3196,31 +3192,27 @@
       <c r="K49" t="n">
         <v>5</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3222,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3239,10 +3231,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -3251,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3262,27 +3254,31 @@
       <c r="K50" t="n">
         <v>5</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3288,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3301,22 +3297,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3324,18 +3320,26 @@
       <c r="K51" t="n">
         <v>5</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -3350,7 +3354,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3359,22 +3363,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3382,27 +3386,27 @@
       <c r="K52" t="n">
         <v>5</v>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3416,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3421,10 +3425,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -3433,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3444,27 +3448,23 @@
       <c r="K53" t="n">
         <v>5</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3508,24 +3508,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3574,29 +3574,29 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3618,19 +3618,19 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3643,13 +3643,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>1</t>
@@ -3657,12 +3657,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3690,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3713,7 +3713,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3772,25 +3772,29 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3804,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3834,7 +3838,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3842,7 +3846,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -3862,7 +3866,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3880,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3901,11 +3905,7 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>1</t>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3940,19 +3940,19 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3965,13 +3965,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>1</t>
@@ -3979,12 +3979,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4035,7 +4035,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TAAAATAtAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4078,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -4103,11 +4103,7 @@
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>1</t>
@@ -4115,7 +4111,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -4130,7 +4126,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAAAATAtAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4148,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -4173,7 +4169,11 @@
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>1</t>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4271,19 +4271,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -4296,23 +4296,19 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -4402,7 +4398,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4420,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4445,7 +4441,11 @@
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>3</t>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4477,10 +4477,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4502,24 +4502,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AAtAATAAAT</t>
+          <t>TATAATAtAT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4555,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4568,28 +4568,28 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AAtAATAtAT</t>
+          <t>AAtAATAAAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4622,13 +4622,13 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4649,7 +4649,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2, 7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TATAATAtAT</t>
+          <t>AAtAATAtAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4683,19 +4683,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -4708,23 +4708,23 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 7</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>AtATATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -609,7 +609,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AtATATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -772,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -809,16 +809,16 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -844,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -861,18 +861,14 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,7 +876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -898,13 +894,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -917,15 +913,11 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -934,7 +926,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -958,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -971,16 +963,16 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1042,7 +1034,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1060,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1077,14 +1069,18 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1110,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1129,11 +1125,15 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1179,11 +1179,15 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
           <t>6</t>
@@ -1196,7 +1200,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1214,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1231,13 +1235,13 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>6, 8</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>6</t>
@@ -1250,7 +1254,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1262,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1274,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1283,22 +1287,18 @@
         <v>3</v>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1345,14 +1345,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1399,18 +1399,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1416,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1457,18 +1453,18 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1474,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1496,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1513,15 +1509,11 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1536,7 +1528,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1554,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1573,11 +1565,15 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
           <t>6</t>
@@ -1648,7 +1644,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1666,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1685,18 +1681,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1698,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1724,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1743,14 +1735,18 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1814,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1830,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1842,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1851,18 +1847,22 @@
         <v>3</v>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1909,18 +1909,18 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1948,43 +1948,35 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1992,7 +1984,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2004,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2016,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -2025,26 +2017,22 @@
         <v>4</v>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2042,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2063,7 +2051,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2072,39 +2060,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2112,7 +2104,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2130,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2149,13 +2141,13 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2170,7 +2162,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2188,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2207,18 +2199,14 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>2, 6</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2216,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2240,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2261,22 +2249,22 @@
         <v>4</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2274,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2304,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2321,16 +2309,20 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2332,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2352,19 +2344,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2373,15 +2365,23 @@
         <v>4</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
           <t>4</t>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2431,13 +2431,13 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2470,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2489,11 +2489,15 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
           <t>6</t>
@@ -2506,7 +2510,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2524,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2543,13 +2547,13 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -2622,7 +2626,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2640,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2659,13 +2663,13 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -2680,7 +2684,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2689,10 +2693,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2701,36 +2705,36 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4, 8</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2738,7 +2742,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2747,7 +2751,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2756,39 +2760,35 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2814,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2835,11 +2835,15 @@
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -2854,7 +2858,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2866,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2887,26 +2891,22 @@
         <v>4</v>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2928,19 +2928,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2949,22 +2949,22 @@
         <v>4</v>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2983,19 +2983,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3006,27 +3006,27 @@
       <c r="K46" t="n">
         <v>5</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -3077,13 +3077,13 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3201,13 +3201,13 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3263,7 +3263,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3297,19 +3297,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -3320,26 +3320,22 @@
       <c r="K51" t="n">
         <v>5</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -3354,7 +3350,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3372,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3393,7 +3389,11 @@
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>1</t>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3515,7 +3515,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3574,24 +3574,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3618,19 +3618,19 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3643,13 +3643,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>1</t>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3779,7 +3779,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -3789,12 +3789,12 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3843,7 +3843,11 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>7</t>
@@ -3851,7 +3855,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -3866,7 +3870,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3878,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3890,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3903,7 +3907,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
@@ -3913,12 +3921,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3936,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3946,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3967,11 +3975,7 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>1</t>
@@ -3979,7 +3983,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -3994,7 +3998,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4012,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -4028,29 +4032,25 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -4094,24 +4094,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -4230,24 +4230,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AAtAATATAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4271,19 +4271,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -4296,19 +4296,23 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -4328,7 +4332,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AAtAATATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4337,19 +4341,19 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -4362,23 +4366,19 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4416,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4441,11 +4441,7 @@
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>3</t>
@@ -4453,7 +4449,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -4468,7 +4464,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4486,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4511,7 +4507,11 @@
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>3</t>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AAtAATAAAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4613,19 +4613,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -4638,23 +4638,19 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -4744,7 +4740,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>AAtAATAAAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4753,19 +4749,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -4778,19 +4774,23 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>AtATATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AtATATATAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -827,20 +827,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -857,20 +857,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AAtAATAtAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -947,20 +947,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -977,20 +977,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>AAtAATATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1007,20 +1007,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1067,20 +1067,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1097,20 +1097,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1277,20 +1277,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>AAtAATAtAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1547,20 +1547,20 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAtAATATAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1607,20 +1607,20 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1637,24 +1637,20 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1662,7 +1658,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TATAATAtAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1671,20 +1667,20 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1692,7 +1688,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1701,24 +1697,20 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1726,7 +1718,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1745,7 +1737,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1756,7 +1748,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1765,20 +1757,24 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1786,7 +1782,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1805,12 +1801,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1816,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1839,7 +1835,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -1850,7 +1846,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>AAtAATAAAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1859,24 +1855,20 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1884,7 +1876,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAAAATAtAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1903,7 +1895,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1918,7 +1910,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1937,7 +1929,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -1948,7 +1940,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AAtAATAAAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1957,20 +1949,24 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>2</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1978,7 +1974,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1987,20 +1983,24 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TATAATAtAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2017,20 +2017,20 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2141,24 +2141,20 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2166,7 +2162,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TAAAATAtAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2175,24 +2171,20 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>2</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2200,7 +2192,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2219,12 +2211,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2226,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2243,22 +2235,18 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2290,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2311,20 +2299,24 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>2</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2332,7 +2324,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2341,20 +2333,24 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2362,7 +2358,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2371,20 +2367,24 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2401,20 +2401,20 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>1, 3, 7</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2461,24 +2461,20 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2486,7 +2482,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2505,12 +2501,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2516,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2529,22 +2525,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2550,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2563,20 +2559,24 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2627,22 +2627,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,75 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>RM1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RM2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RAB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RADB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RC1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>RC2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RC3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Complexitat</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RM1 posicions</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RM2 posicions</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RAB posicions</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RADB posicions</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>RC1 posicions</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RC2 posicions</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>RC3 posicions</t>
         </is>
@@ -476,7 +526,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,8 +543,28 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -502,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,8 +589,32 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>AtATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +639,32 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,8 +689,32 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,8 +739,32 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -606,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,8 +789,32 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -632,7 +822,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AtATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -649,8 +839,36 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -658,7 +876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -675,8 +893,36 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -684,7 +930,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -701,8 +947,32 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -710,7 +980,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -727,8 +997,36 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,7 +1034,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -753,8 +1051,36 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -762,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -779,8 +1105,36 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -788,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -797,20 +1151,44 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -818,7 +1196,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,15 +1208,43 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -848,7 +1254,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -863,14 +1269,42 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -878,7 +1312,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -893,12 +1327,40 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -908,7 +1370,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -917,20 +1379,48 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -938,7 +1428,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -950,15 +1440,39 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -968,7 +1482,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -980,15 +1494,43 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -998,7 +1540,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AAtAATATAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1007,20 +1549,48 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1028,7 +1598,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1037,20 +1607,44 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1058,7 +1652,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1067,20 +1661,44 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1088,7 +1706,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1097,20 +1715,44 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1118,7 +1760,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1127,20 +1769,48 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1148,7 +1818,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1157,20 +1827,48 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1178,7 +1876,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1187,20 +1885,44 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1217,20 +1939,48 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1238,7 +1988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1247,20 +1997,48 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1268,7 +2046,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1277,20 +2055,52 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,7 +2108,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1307,20 +2117,44 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1328,7 +2162,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1337,20 +2171,48 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1358,7 +2220,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1367,20 +2229,48 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1388,7 +2278,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1397,20 +2287,52 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1418,7 +2340,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1427,20 +2349,48 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1448,7 +2398,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1457,20 +2407,48 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1478,7 +2456,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1487,20 +2465,52 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1508,7 +2518,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAtAATAtAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1517,20 +2527,48 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1538,7 +2576,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1550,15 +2588,43 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1568,7 +2634,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1577,20 +2643,48 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1598,7 +2692,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1607,20 +2701,44 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1628,7 +2746,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1637,20 +2755,48 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1658,7 +2804,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1667,20 +2813,44 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1688,7 +2858,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1697,20 +2867,48 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1718,7 +2916,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1727,20 +2925,48 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1748,7 +2974,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1757,22 +2983,50 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1782,7 +3036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1794,19 +3048,51 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1816,7 +3102,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1825,20 +3111,52 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1846,7 +3164,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AAtAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1855,20 +3173,48 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1876,7 +3222,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TAAAATAtAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1888,19 +3234,47 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1910,7 +3284,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1919,20 +3293,52 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1940,7 +3346,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1952,19 +3358,51 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1974,7 +3412,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1983,22 +3421,50 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2008,7 +3474,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TATAATAtAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2017,18 +3483,54 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1, 3</t>
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2038,7 +3540,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2047,20 +3549,52 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2068,7 +3602,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2077,20 +3611,56 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2098,7 +3668,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2110,19 +3680,51 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>7</t>
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2132,7 +3734,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2141,20 +3743,56 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2162,7 +3800,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2171,20 +3809,56 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2192,7 +3866,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2204,19 +3878,47 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2226,7 +3928,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2235,18 +3937,54 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>1, 3</t>
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2256,7 +3994,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2268,19 +4006,51 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2290,7 +4060,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2305,16 +4075,48 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2324,7 +4126,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>TAAAATAtAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2339,16 +4141,52 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
         <is>
           <t>7</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2358,7 +4196,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2370,19 +4208,51 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2392,7 +4262,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2404,17 +4274,53 @@
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2422,7 +4328,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2431,20 +4337,56 @@
         </is>
       </c>
       <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>3</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2452,7 +4394,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2461,20 +4403,60 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2482,7 +4464,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAtAATATAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2491,22 +4473,58 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2516,7 +4534,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>AAtAATAAAT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2531,16 +4549,52 @@
         <v>2</v>
       </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>3</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1, 3</t>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2550,7 +4604,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2565,16 +4619,48 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
         <v>3</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2584,7 +4670,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAtAATAtAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2593,22 +4679,58 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>7</t>
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2618,7 +4740,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>TATAATAtAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2633,16 +4755,52 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AtATATATAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -659,7 +659,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AtATATATAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -822,7 +822,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -857,16 +857,16 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -913,16 +913,16 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -948,16 +948,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -965,14 +965,18 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -980,7 +984,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -998,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1017,15 +1021,11 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1071,13 +1071,13 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1125,14 +1125,14 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1179,14 +1179,18 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1200,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1239,7 +1243,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1254,7 +1258,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1263,7 +1267,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1275,36 +1279,32 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1345,22 +1345,18 @@
         <v>3</v>
       </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1366,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1407,18 +1403,18 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1424,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1440,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1461,18 +1457,22 @@
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,15 +1519,11 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
           <t>4</t>
@@ -1540,7 +1536,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1577,13 +1573,13 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1670,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1689,14 +1685,18 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1741,13 +1741,13 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>6, 8</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
           <t>6</t>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1778,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1795,15 +1795,11 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -1818,7 +1814,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1855,18 +1851,18 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1872,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1885,7 +1881,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1897,32 +1893,36 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1948,39 +1948,39 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -2025,15 +2025,11 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>6, 8</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
           <t>6</t>
@@ -2046,7 +2042,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2055,7 +2051,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2064,43 +2060,35 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2108,7 +2096,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2120,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2141,18 +2129,22 @@
         <v>4</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2154,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2180,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2199,13 +2191,13 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2220,7 +2212,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2232,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2244,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2253,22 +2245,26 @@
         <v>4</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2274,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2290,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2311,26 +2307,22 @@
         <v>4</v>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2332,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2352,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2373,22 +2365,22 @@
         <v>4</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2390,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2410,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2431,22 +2423,22 @@
         <v>4</v>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2448,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2468,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2480,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2489,26 +2481,22 @@
         <v>4</v>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2506,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2530,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2551,22 +2539,26 @@
         <v>4</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2568,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2588,19 +2580,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2609,17 +2601,17 @@
         <v>4</v>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2634,7 +2626,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2652,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2671,13 +2663,13 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3, 7</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -2692,7 +2684,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2710,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>3</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2727,16 +2719,16 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2738,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2755,7 +2747,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2767,18 +2759,22 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
@@ -2786,17 +2782,17 @@
           <t>7</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2804,7 +2800,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2822,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2839,11 +2835,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2895,13 +2895,13 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2934,39 +2934,39 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2, 8</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2983,22 +2983,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -3006,27 +3006,27 @@
       <c r="K46" t="n">
         <v>5</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -3068,26 +3068,22 @@
       <c r="K47" t="n">
         <v>5</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4, 8</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -3102,7 +3098,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3111,10 +3107,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3123,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3134,27 +3130,23 @@
       <c r="K48" t="n">
         <v>5</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3156,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3173,22 +3165,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3196,23 +3188,31 @@
       <c r="K49" t="n">
         <v>5</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3293,10 +3293,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -3305,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3316,22 +3316,26 @@
       <c r="K51" t="n">
         <v>5</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>4, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -3346,7 +3350,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3355,19 +3359,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -3378,31 +3382,27 @@
       <c r="K52" t="n">
         <v>5</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3508,29 +3508,25 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3536,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3552,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -3564,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3574,25 +3570,29 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3620,13 +3620,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3643,7 +3643,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3686,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3709,7 +3709,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5, 7</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3746,13 +3746,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -3771,13 +3771,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>1</t>
@@ -3785,12 +3785,12 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 8</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3818,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3839,11 +3839,7 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>1</t>
@@ -3851,7 +3847,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2, 6</t>
+          <t>2, 6, 8</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -3866,7 +3862,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3884,13 +3880,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3900,20 +3896,24 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2, 6, 8</t>
+          <t>6, 8</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3962,29 +3962,29 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>6, 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4035,7 +4035,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2, 8</t>
+          <t>2, 6</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAAAATAtAT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4078,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -4103,7 +4103,11 @@
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>1</t>
@@ -4111,7 +4115,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -4126,7 +4130,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TAAAATAtAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4138,13 +4142,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -4160,23 +4164,19 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -4230,24 +4230,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4346,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4371,7 +4371,11 @@
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>3</t>
@@ -4379,7 +4383,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -4394,7 +4398,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4412,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4437,11 +4441,7 @@
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>3</t>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>AAtAATAtAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4613,22 +4613,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4638,24 +4638,28 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1, 4</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2, 4, 8</t>
+          <t>2, 4</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -4670,7 +4674,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AAtAATAtAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4679,22 +4683,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4704,28 +4708,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1, 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>2, 7</t>
-        </is>
-      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2, 4</t>
+          <t>2, 4, 8</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">

--- a/generated/oliva1992b.xlsx
+++ b/generated/oliva1992b.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,75 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>RM1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RM2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RAB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RADB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RC1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>RC2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RC3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Complexitat</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RM1 posicions</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RM2 posicions</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RAB posicions</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RADB posicions</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>RC1 posicions</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RC2 posicions</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>RC3 posicions</t>
         </is>
@@ -476,7 +526,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATATAtAtAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,8 +543,28 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -502,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AtATAtAtAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,8 +589,32 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AtAtATAtAT</t>
+          <t>ATATATAtAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +639,32 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +672,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AtATAtATAT</t>
+          <t>AtATATATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,8 +689,32 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AtATATAtAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,8 +739,32 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -606,7 +772,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AtAtATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,8 +789,32 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -632,7 +822,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AtATATATAT</t>
+          <t>ATAtATATAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -649,8 +839,36 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -658,7 +876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATAtATAtAT</t>
+          <t>AAATATAtAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -675,8 +893,36 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -684,7 +930,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATAtATAT</t>
+          <t>AtATATAAAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -701,8 +947,36 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -710,7 +984,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATAtATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -727,8 +1001,36 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,7 +1038,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATATAtAT</t>
+          <t>AtATATAtAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -753,8 +1055,32 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -762,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATATAtATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -779,8 +1105,36 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -788,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATAtATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -797,20 +1151,44 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -818,7 +1196,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAAtATATAT</t>
+          <t>AtAtATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -830,15 +1208,39 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -848,7 +1250,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AAAtATAtAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -857,20 +1259,48 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -878,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAATAtAtAT</t>
+          <t>AAAtATATAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -890,15 +1320,43 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -908,7 +1366,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AtATAtAAAT</t>
+          <t>ATATAtAAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -917,20 +1375,48 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -938,7 +1424,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAAtATAtAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -947,20 +1433,48 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -968,7 +1482,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AtATAtATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -980,15 +1494,39 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -998,7 +1536,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AAtAATATAT</t>
+          <t>ATATAtAtAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1007,20 +1545,44 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1028,7 +1590,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AtATATAAAT</t>
+          <t>ATATAAAtAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1037,20 +1599,48 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1058,7 +1648,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AtAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1067,20 +1657,44 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1088,7 +1702,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AAATAtATAT</t>
+          <t>ATAtATAtAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1097,20 +1711,44 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1118,7 +1756,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AAATAtAtAT</t>
+          <t>ATAtATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1127,20 +1765,48 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1148,7 +1814,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATAtATAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1157,20 +1823,48 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1178,7 +1872,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AtAtATAAAT</t>
+          <t>AtATAAATAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1187,20 +1881,48 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,7 +1930,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AtAAATAtAT</t>
+          <t>AtATAAAAAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1217,20 +1939,48 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1238,7 +1988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AtATAAAtAT</t>
+          <t>AAATAAAtAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1247,20 +1997,48 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1268,7 +2046,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TAATAtATAT</t>
+          <t>AtATAAAtAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1280,15 +2058,43 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1298,7 +2104,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATATAAAtAT</t>
+          <t>AtAAATATAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1307,20 +2113,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1328,7 +2166,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AtATAtAtAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1337,20 +2175,44 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1, 5, 7</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1358,7 +2220,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAATATAtAT</t>
+          <t>AAATAtAtAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1367,20 +2229,48 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1388,7 +2278,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATAAATAtAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1397,20 +2287,52 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1418,7 +2340,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>TAATATAtAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1433,14 +2355,46 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1448,7 +2402,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATATAtAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1457,20 +2411,48 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1478,7 +2460,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATAAATAtAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1493,14 +2475,42 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1508,7 +2518,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AAtAATAtAT</t>
+          <t>AtAtATAAAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1517,20 +2527,48 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1538,7 +2576,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAATATAtAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1550,15 +2588,39 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1568,7 +2630,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AtATAAATAT</t>
+          <t>AtATAtAAAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1577,20 +2639,48 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1, 5</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1598,7 +2688,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAAtATATAT</t>
+          <t>AAAtATAAAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1607,20 +2697,48 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1628,7 +2746,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AtATAAAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1637,20 +2755,48 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1658,7 +2804,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AtAtATAtAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1667,20 +2813,44 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1, 3, 7</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1688,7 +2858,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATAtAAAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1697,20 +2867,48 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1718,7 +2916,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAAtATAtAT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1727,20 +2925,48 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1748,7 +2974,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TAATAAAtAT</t>
+          <t>TAATAtATAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1760,19 +2986,51 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1782,7 +3040,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AATAATAtAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1794,19 +3052,47 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1816,7 +3102,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AAAtATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1825,20 +3111,48 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1846,7 +3160,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AAtAATAAAT</t>
+          <t>TAAtATATAT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1855,20 +3169,56 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1876,7 +3226,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TAAAATAtAT</t>
+          <t>AtAAATAAAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1885,22 +3235,50 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>4, 8</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1910,7 +3288,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AAATAAAtAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1919,20 +3297,52 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1940,7 +3350,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TAATAtAAAT</t>
+          <t>AAAAATAtAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1949,22 +3359,50 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1974,7 +3412,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAAtATAAAT</t>
+          <t>AtAAATAtAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1983,22 +3421,50 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1, 7</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2008,7 +3474,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TATAATAtAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2017,18 +3483,50 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1, 3</t>
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2038,7 +3536,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AAATAtAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2047,20 +3545,56 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2068,7 +3602,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>TAAtATAAAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2077,20 +3611,56 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2098,7 +3668,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AtATAATAAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2110,19 +3680,51 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>7</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>6, 8</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2132,7 +3734,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AtAAATAAAT</t>
+          <t>TAATAAAtAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2141,20 +3743,56 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2, 6</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2162,7 +3800,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AAAAATAtAT</t>
+          <t>TAATAtAAAT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2171,20 +3809,56 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2, 8</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2192,7 +3866,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2204,19 +3878,47 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2, 6, 8</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2226,7 +3928,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>TAATAtAtAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2235,18 +3937,54 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>1, 3</t>
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>5, 7</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2256,7 +3994,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAAtATAtAT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2268,19 +4006,51 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>3, 7</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2290,7 +4060,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2305,16 +4075,48 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2324,7 +4126,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AtATAATAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2336,19 +4138,51 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>7</t>
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2358,7 +4192,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAAAATAtAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2373,16 +4207,52 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2392,7 +4262,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AAtAATATAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2401,20 +4271,60 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2422,7 +4332,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2431,20 +4341,56 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>1, 3, 7</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2452,7 +4398,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AATAATAtAT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2461,20 +4407,60 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>1, 5, 7</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2482,7 +4468,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2491,22 +4477,54 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>3</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>3, 7</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2516,7 +4534,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>TATAATAtAT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2525,22 +4543,58 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
-      </c>
-      <c r="G70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2550,7 +4604,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2565,16 +4619,48 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
         <v>3</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>5, 7</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1, 3</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2584,7 +4670,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAtAATAAAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2593,22 +4679,58 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
         <v>3</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>1, 5</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>7</t>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2, 4, 8</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2618,7 +4740,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAtAATAtAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2627,22 +4749,58 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1, 7</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1, 4</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2, 7</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2, 4</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
